--- a/EstimatedActiveCasesOverTimeByCounty/2021-03-08.xlsx
+++ b/EstimatedActiveCasesOverTimeByCounty/2021-03-08.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="351">
   <si>
-    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/07/2021 at 3:00 PM CST</t>
+    <t>COVID-19 Active Cases by County, 12/11/2020 - 03/08/2021 at 3:00 PM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Active Cases 03-06</t>
+  </si>
+  <si>
+    <t>Active Cases 03-07</t>
   </si>
   <si>
     <t/>
@@ -1264,6 +1267,7 @@
     <col min="85" max="85" width="12.0" customWidth="true"/>
     <col min="86" max="86" width="12.0" customWidth="true"/>
     <col min="87" max="87" width="12.0" customWidth="true"/>
+    <col min="88" max="88" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1538,13 +1542,16 @@
       <c r="CI3" t="s" s="10">
         <v>88</v>
       </c>
+      <c r="CJ3" t="s" s="10">
+        <v>89</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" t="n">
         <v>261.0</v>
@@ -1800,14 +1807,17 @@
       </c>
       <c r="CI4" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="n">
         <v>313.0</v>
@@ -2062,15 +2072,18 @@
         <v>15.0</v>
       </c>
       <c r="CI5" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CJ5" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="n">
         <v>751.0</v>
@@ -2325,15 +2338,18 @@
         <v>381.0</v>
       </c>
       <c r="CI6" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="CJ6" t="n">
         <v>381.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
         <v>103.0</v>
@@ -2589,14 +2605,17 @@
       </c>
       <c r="CI7" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="n">
         <v>45.0</v>
@@ -2851,15 +2870,18 @@
         <v>1.0</v>
       </c>
       <c r="CI8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ8" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="n">
         <v>32.0</v>
@@ -3114,15 +3136,18 @@
         <v>1.0</v>
       </c>
       <c r="CI9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ9" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="n">
         <v>210.0</v>
@@ -3378,14 +3403,17 @@
       </c>
       <c r="CI10" t="n">
         <v>80.0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>73.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" t="n">
         <v>77.0</v>
@@ -3640,15 +3668,18 @@
         <v>49.0</v>
       </c>
       <c r="CI11" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="CJ11" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" t="n">
         <v>118.0</v>
@@ -3903,15 +3934,18 @@
         <v>15.0</v>
       </c>
       <c r="CI12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CJ12" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" t="n">
         <v>46.0</v>
@@ -4167,14 +4201,17 @@
       </c>
       <c r="CI13" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" t="n">
         <v>461.0</v>
@@ -4430,14 +4467,17 @@
       </c>
       <c r="CI14" t="n">
         <v>274.0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>280.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" t="n">
         <v>8.0</v>
@@ -4692,15 +4732,18 @@
         <v>0.0</v>
       </c>
       <c r="CI15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
         <v>171.0</v>
@@ -4955,15 +4998,18 @@
         <v>28.0</v>
       </c>
       <c r="CI16" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" t="n">
         <v>1639.0</v>
@@ -5218,15 +5264,18 @@
         <v>563.0</v>
       </c>
       <c r="CI17" t="n">
+        <v>563.0</v>
+      </c>
+      <c r="CJ17" t="n">
         <v>563.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" t="n">
         <v>15750.0</v>
@@ -5482,14 +5531,17 @@
       </c>
       <c r="CI18" t="n">
         <v>5906.0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>3060.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" t="n">
         <v>24.0</v>
@@ -5745,14 +5797,17 @@
       </c>
       <c r="CI19" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" t="n">
         <v>5.0</v>
@@ -6007,15 +6062,18 @@
         <v>0.0</v>
       </c>
       <c r="CI20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" t="n">
         <v>74.0</v>
@@ -6271,14 +6329,17 @@
       </c>
       <c r="CI21" t="n">
         <v>45.0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" t="n">
         <v>482.0</v>
@@ -6534,14 +6595,17 @@
       </c>
       <c r="CI22" t="n">
         <v>532.0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>521.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23" t="n">
         <v>2730.0</v>
@@ -6797,14 +6861,17 @@
       </c>
       <c r="CI23" t="n">
         <v>2551.0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>2446.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" t="n">
         <v>854.0</v>
@@ -7059,15 +7126,18 @@
         <v>1053.0</v>
       </c>
       <c r="CI24" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="CJ24" t="n">
         <v>1053.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C25" t="n">
         <v>182.0</v>
@@ -7323,14 +7393,17 @@
       </c>
       <c r="CI25" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C26" t="n">
         <v>15.0</v>
@@ -7585,15 +7658,18 @@
         <v>4.0</v>
       </c>
       <c r="CI26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CJ26" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" t="n">
         <v>38.0</v>
@@ -7848,15 +7924,18 @@
         <v>19.0</v>
       </c>
       <c r="CI27" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CJ27" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" t="n">
         <v>429.0</v>
@@ -8111,15 +8190,18 @@
         <v>69.0</v>
       </c>
       <c r="CI28" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CJ28" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" t="n">
         <v>119.0</v>
@@ -8375,14 +8457,17 @@
       </c>
       <c r="CI29" t="n">
         <v>81.0</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C30" t="n">
         <v>311.0</v>
@@ -8638,14 +8723,17 @@
       </c>
       <c r="CI30" t="n">
         <v>209.0</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>216.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" t="n">
         <v>197.0</v>
@@ -8900,15 +8988,18 @@
         <v>152.0</v>
       </c>
       <c r="CI31" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="CJ31" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" t="n">
         <v>51.0</v>
@@ -9164,14 +9255,17 @@
       </c>
       <c r="CI32" t="n">
         <v>62.0</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>57.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" t="n">
         <v>49.0</v>
@@ -9426,15 +9520,18 @@
         <v>5.0</v>
       </c>
       <c r="CI33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CJ33" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C34" t="n">
         <v>2029.0</v>
@@ -9689,15 +9786,18 @@
         <v>3478.0</v>
       </c>
       <c r="CI34" t="n">
+        <v>3478.0</v>
+      </c>
+      <c r="CJ34" t="n">
         <v>3478.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C35" t="n">
         <v>71.0</v>
@@ -9952,15 +10052,18 @@
         <v>160.0</v>
       </c>
       <c r="CI35" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="CJ35" t="n">
         <v>156.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C36" t="n">
         <v>117.0</v>
@@ -10215,15 +10318,18 @@
         <v>13.0</v>
       </c>
       <c r="CI36" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CJ36" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="n">
         <v>83.0</v>
@@ -10479,14 +10585,17 @@
       </c>
       <c r="CI37" t="n">
         <v>100.0</v>
+      </c>
+      <c r="CJ37" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="n">
         <v>133.0</v>
@@ -10741,15 +10850,18 @@
         <v>12.0</v>
       </c>
       <c r="CI38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CJ38" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" t="n">
         <v>269.0</v>
@@ -11004,15 +11116,18 @@
         <v>154.0</v>
       </c>
       <c r="CI39" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="CJ39" t="n">
         <v>154.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C40" t="n">
         <v>214.0</v>
@@ -11267,15 +11382,18 @@
         <v>0.0</v>
       </c>
       <c r="CI40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ40" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C41" t="n">
         <v>218.0</v>
@@ -11530,15 +11648,18 @@
         <v>6.0</v>
       </c>
       <c r="CI41" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CJ41" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" t="n">
         <v>63.0</v>
@@ -11793,15 +11914,18 @@
         <v>3.0</v>
       </c>
       <c r="CI42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CJ42" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" t="n">
         <v>19.0</v>
@@ -12056,15 +12180,18 @@
         <v>11.0</v>
       </c>
       <c r="CI43" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CJ43" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C44" t="n">
         <v>38.0</v>
@@ -12319,15 +12446,18 @@
         <v>32.0</v>
       </c>
       <c r="CI44" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CJ44" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C45" t="n">
         <v>12.0</v>
@@ -12582,15 +12712,18 @@
         <v>0.0</v>
       </c>
       <c r="CI45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C46" t="n">
         <v>3987.0</v>
@@ -12846,14 +12979,17 @@
       </c>
       <c r="CI46" t="n">
         <v>1647.0</v>
+      </c>
+      <c r="CJ46" t="n">
+        <v>1406.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" t="n">
         <v>104.0</v>
@@ -13108,15 +13244,18 @@
         <v>0.0</v>
       </c>
       <c r="CI47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ47" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C48" t="n">
         <v>91.0</v>
@@ -13371,15 +13510,18 @@
         <v>27.0</v>
       </c>
       <c r="CI48" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CJ48" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49" t="n">
         <v>667.0</v>
@@ -13634,15 +13776,18 @@
         <v>405.0</v>
       </c>
       <c r="CI49" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="CJ49" t="n">
         <v>405.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" t="n">
         <v>112.0</v>
@@ -13897,15 +14042,18 @@
         <v>5.0</v>
       </c>
       <c r="CI50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CJ50" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" t="n">
         <v>11.0</v>
@@ -14160,15 +14308,18 @@
         <v>30.0</v>
       </c>
       <c r="CI51" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="CJ51" t="n">
         <v>29.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C52" t="n">
         <v>249.0</v>
@@ -14423,15 +14574,18 @@
         <v>21.0</v>
       </c>
       <c r="CI52" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CJ52" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C53" t="n">
         <v>318.0</v>
@@ -14687,14 +14841,17 @@
       </c>
       <c r="CI53" t="n">
         <v>104.0</v>
+      </c>
+      <c r="CJ53" t="n">
+        <v>102.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C54" t="n">
         <v>30.0</v>
@@ -14949,15 +15106,18 @@
         <v>3.0</v>
       </c>
       <c r="CI54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CJ54" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C55" t="n">
         <v>0.0</v>
@@ -15213,14 +15373,17 @@
       </c>
       <c r="CI55" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C56" t="n">
         <v>8.0</v>
@@ -15476,14 +15639,17 @@
       </c>
       <c r="CI56" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CJ56" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C57" t="n">
         <v>40.0</v>
@@ -15738,15 +15904,18 @@
         <v>26.0</v>
       </c>
       <c r="CI57" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="CJ57" t="n">
         <v>25.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C58" t="n">
         <v>44.0</v>
@@ -16002,14 +16171,17 @@
       </c>
       <c r="CI58" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CJ58" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C59" t="n">
         <v>24.0</v>
@@ -16265,14 +16437,17 @@
       </c>
       <c r="CI59" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CJ59" t="n">
+        <v>86.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C60" t="n">
         <v>25147.0</v>
@@ -16528,14 +16703,17 @@
       </c>
       <c r="CI60" t="n">
         <v>10298.0</v>
+      </c>
+      <c r="CJ60" t="n">
+        <v>9811.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C61" t="n">
         <v>161.0</v>
@@ -16790,15 +16968,18 @@
         <v>12.0</v>
       </c>
       <c r="CI61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CJ61" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" t="n">
         <v>418.0</v>
@@ -17054,14 +17235,17 @@
       </c>
       <c r="CI62" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CJ62" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" t="n">
         <v>25.0</v>
@@ -17316,15 +17500,18 @@
         <v>38.0</v>
       </c>
       <c r="CI63" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="CJ63" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" t="n">
         <v>8213.0</v>
@@ -17579,15 +17766,18 @@
         <v>11739.0</v>
       </c>
       <c r="CI64" t="n">
+        <v>11604.0</v>
+      </c>
+      <c r="CJ64" t="n">
         <v>11604.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C65" t="n">
         <v>99.0</v>
@@ -17842,15 +18032,18 @@
         <v>18.0</v>
       </c>
       <c r="CI65" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CJ65" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" t="n">
         <v>19.0</v>
@@ -18106,14 +18299,17 @@
       </c>
       <c r="CI66" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CJ66" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" t="n">
         <v>44.0</v>
@@ -18369,14 +18565,17 @@
       </c>
       <c r="CI67" t="n">
         <v>36.0</v>
+      </c>
+      <c r="CJ67" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" t="n">
         <v>47.0</v>
@@ -18631,15 +18830,18 @@
         <v>5.0</v>
       </c>
       <c r="CI68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CJ68" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" t="n">
         <v>86.0</v>
@@ -18895,14 +19097,17 @@
       </c>
       <c r="CI69" t="n">
         <v>14.0</v>
+      </c>
+      <c r="CJ69" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" t="n">
         <v>55.0</v>
@@ -19157,15 +19362,18 @@
         <v>11.0</v>
       </c>
       <c r="CI70" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CJ70" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="n">
         <v>5924.0</v>
@@ -19421,14 +19629,17 @@
       </c>
       <c r="CI71" t="n">
         <v>1121.0</v>
+      </c>
+      <c r="CJ71" t="n">
+        <v>1079.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" t="n">
         <v>14.0</v>
@@ -19683,15 +19894,18 @@
         <v>0.0</v>
       </c>
       <c r="CI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" t="n">
         <v>856.0</v>
@@ -19946,15 +20160,18 @@
         <v>207.0</v>
       </c>
       <c r="CI73" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="CJ73" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C74" t="n">
         <v>37353.0</v>
@@ -20210,14 +20427,17 @@
       </c>
       <c r="CI74" t="n">
         <v>4945.0</v>
+      </c>
+      <c r="CJ74" t="n">
+        <v>4789.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C75" t="n">
         <v>162.0</v>
@@ -20472,15 +20692,18 @@
         <v>32.0</v>
       </c>
       <c r="CI75" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CJ75" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" t="n">
         <v>77.0</v>
@@ -20736,14 +20959,17 @@
       </c>
       <c r="CI76" t="n">
         <v>22.0</v>
+      </c>
+      <c r="CJ76" t="n">
+        <v>20.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C77" t="n">
         <v>151.0</v>
@@ -20998,15 +21224,18 @@
         <v>32.0</v>
       </c>
       <c r="CI77" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="CJ77" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C78" t="n">
         <v>193.0</v>
@@ -21262,14 +21491,17 @@
       </c>
       <c r="CI78" t="n">
         <v>102.0</v>
+      </c>
+      <c r="CJ78" t="n">
+        <v>99.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C79" t="n">
         <v>28.0</v>
@@ -21524,15 +21756,18 @@
         <v>0.0</v>
       </c>
       <c r="CI79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C80" t="n">
         <v>107.0</v>
@@ -21788,14 +22023,17 @@
       </c>
       <c r="CI80" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CJ80" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" t="n">
         <v>0.0</v>
@@ -22050,15 +22288,18 @@
         <v>0.0</v>
       </c>
       <c r="CI81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82" t="n">
         <v>7296.0</v>
@@ -22314,14 +22555,17 @@
       </c>
       <c r="CI82" t="n">
         <v>10102.0</v>
+      </c>
+      <c r="CJ82" t="n">
+        <v>10101.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C83" t="n">
         <v>24.0</v>
@@ -22576,15 +22820,18 @@
         <v>99.0</v>
       </c>
       <c r="CI83" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="CJ83" t="n">
         <v>99.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C84" t="n">
         <v>129.0</v>
@@ -22839,15 +23086,18 @@
         <v>0.0</v>
       </c>
       <c r="CI84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ84" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C85" t="n">
         <v>107.0</v>
@@ -23103,14 +23353,17 @@
       </c>
       <c r="CI85" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C86" t="n">
         <v>162.0</v>
@@ -23365,15 +23618,18 @@
         <v>4.0</v>
       </c>
       <c r="CI86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CJ86" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C87" t="n">
         <v>2026.0</v>
@@ -23628,15 +23884,18 @@
         <v>3682.0</v>
       </c>
       <c r="CI87" t="n">
+        <v>3610.0</v>
+      </c>
+      <c r="CJ87" t="n">
         <v>3610.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" t="n">
         <v>27.0</v>
@@ -23891,15 +24150,18 @@
         <v>19.0</v>
       </c>
       <c r="CI88" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CJ88" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C89" t="n">
         <v>126.0</v>
@@ -24155,14 +24417,17 @@
       </c>
       <c r="CI89" t="n">
         <v>49.0</v>
+      </c>
+      <c r="CJ89" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C90" t="n">
         <v>0.0</v>
@@ -24418,14 +24683,17 @@
       </c>
       <c r="CI90" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CJ90" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C91" t="n">
         <v>2.0</v>
@@ -24680,15 +24948,18 @@
         <v>18.0</v>
       </c>
       <c r="CI91" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CJ91" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="n">
         <v>87.0</v>
@@ -24944,14 +25215,17 @@
       </c>
       <c r="CI92" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C93" t="n">
         <v>355.0</v>
@@ -25207,14 +25481,17 @@
       </c>
       <c r="CI93" t="n">
         <v>53.0</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C94" t="n">
         <v>420.0</v>
@@ -25469,15 +25746,18 @@
         <v>69.0</v>
       </c>
       <c r="CI94" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="CJ94" t="n">
         <v>69.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C95" t="n">
         <v>2037.0</v>
@@ -25733,14 +26013,17 @@
       </c>
       <c r="CI95" t="n">
         <v>734.0</v>
+      </c>
+      <c r="CJ95" t="n">
+        <v>733.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C96" t="n">
         <v>179.0</v>
@@ -25996,14 +26279,17 @@
       </c>
       <c r="CI96" t="n">
         <v>108.0</v>
+      </c>
+      <c r="CJ96" t="n">
+        <v>105.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C97" t="n">
         <v>401.0</v>
@@ -26259,14 +26545,17 @@
       </c>
       <c r="CI97" t="n">
         <v>202.0</v>
+      </c>
+      <c r="CJ97" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C98" t="n">
         <v>440.0</v>
@@ -26521,15 +26810,18 @@
         <v>34.0</v>
       </c>
       <c r="CI98" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CJ98" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C99" t="n">
         <v>91.0</v>
@@ -26784,15 +27076,18 @@
         <v>9.0</v>
       </c>
       <c r="CI99" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CJ99" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C100" t="n">
         <v>53.0</v>
@@ -27048,14 +27343,17 @@
       </c>
       <c r="CI100" t="n">
         <v>15.0</v>
+      </c>
+      <c r="CJ100" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C101" t="n">
         <v>112.0</v>
@@ -27310,15 +27608,18 @@
         <v>19.0</v>
       </c>
       <c r="CI101" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CJ101" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C102" t="n">
         <v>13.0</v>
@@ -27573,15 +27874,18 @@
         <v>0.0</v>
       </c>
       <c r="CI102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C103" t="n">
         <v>1162.0</v>
@@ -27836,15 +28140,18 @@
         <v>596.0</v>
       </c>
       <c r="CI103" t="n">
+        <v>596.0</v>
+      </c>
+      <c r="CJ103" t="n">
         <v>596.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C104" t="n">
         <v>21091.0</v>
@@ -28100,14 +28407,17 @@
       </c>
       <c r="CI104" t="n">
         <v>16039.0</v>
+      </c>
+      <c r="CJ104" t="n">
+        <v>15762.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C105" t="n">
         <v>239.0</v>
@@ -28363,14 +28673,17 @@
       </c>
       <c r="CI105" t="n">
         <v>798.0</v>
+      </c>
+      <c r="CJ105" t="n">
+        <v>803.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C106" t="n">
         <v>61.0</v>
@@ -28626,14 +28939,17 @@
       </c>
       <c r="CI106" t="n">
         <v>94.0</v>
+      </c>
+      <c r="CJ106" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C107" t="n">
         <v>13.0</v>
@@ -28888,15 +29204,18 @@
         <v>0.0</v>
       </c>
       <c r="CI107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ107" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C108" t="n">
         <v>982.0</v>
@@ -29151,15 +29470,18 @@
         <v>646.0</v>
       </c>
       <c r="CI108" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="CJ108" t="n">
         <v>646.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C109" t="n">
         <v>55.0</v>
@@ -29414,15 +29736,18 @@
         <v>4.0</v>
       </c>
       <c r="CI109" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CJ109" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C110" t="n">
         <v>1131.0</v>
@@ -29677,15 +30002,18 @@
         <v>597.0</v>
       </c>
       <c r="CI110" t="n">
+        <v>597.0</v>
+      </c>
+      <c r="CJ110" t="n">
         <v>597.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C111" t="n">
         <v>2517.0</v>
@@ -29940,15 +30268,18 @@
         <v>2510.0</v>
       </c>
       <c r="CI111" t="n">
+        <v>2510.0</v>
+      </c>
+      <c r="CJ111" t="n">
         <v>2510.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C112" t="n">
         <v>327.0</v>
@@ -30204,14 +30535,17 @@
       </c>
       <c r="CI112" t="n">
         <v>72.0</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C113" t="n">
         <v>256.0</v>
@@ -30467,14 +30801,17 @@
       </c>
       <c r="CI113" t="n">
         <v>54.0</v>
+      </c>
+      <c r="CJ113" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C114" t="n">
         <v>280.0</v>
@@ -30729,15 +31066,18 @@
         <v>47.0</v>
       </c>
       <c r="CI114" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="CJ114" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C115" t="n">
         <v>225.0</v>
@@ -30993,14 +31333,17 @@
       </c>
       <c r="CI115" t="n">
         <v>167.0</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>170.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C116" t="n">
         <v>54.0</v>
@@ -31256,14 +31599,17 @@
       </c>
       <c r="CI116" t="n">
         <v>69.0</v>
+      </c>
+      <c r="CJ116" t="n">
+        <v>66.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C117" t="n">
         <v>594.0</v>
@@ -31518,15 +31864,18 @@
         <v>48.0</v>
       </c>
       <c r="CI117" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CJ117" t="n">
         <v>46.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C118" t="n">
         <v>64.0</v>
@@ -31782,14 +32131,17 @@
       </c>
       <c r="CI118" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CJ118" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C119" t="n">
         <v>321.0</v>
@@ -32044,15 +32396,18 @@
         <v>1320.0</v>
       </c>
       <c r="CI119" t="n">
+        <v>1319.0</v>
+      </c>
+      <c r="CJ119" t="n">
         <v>1319.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C120" t="n">
         <v>264.0</v>
@@ -32307,15 +32662,18 @@
         <v>41.0</v>
       </c>
       <c r="CI120" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="CJ120" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C121" t="n">
         <v>0.0</v>
@@ -32571,14 +32929,17 @@
       </c>
       <c r="CI121" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CJ121" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C122" t="n">
         <v>17.0</v>
@@ -32833,15 +33194,18 @@
         <v>1.0</v>
       </c>
       <c r="CI122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ122" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C123" t="n">
         <v>58.0</v>
@@ -33097,14 +33461,17 @@
       </c>
       <c r="CI123" t="n">
         <v>33.0</v>
+      </c>
+      <c r="CJ123" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C124" t="n">
         <v>138.0</v>
@@ -33359,15 +33726,18 @@
         <v>11.0</v>
       </c>
       <c r="CI124" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CJ124" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C125" t="n">
         <v>19.0</v>
@@ -33622,15 +33992,18 @@
         <v>25.0</v>
       </c>
       <c r="CI125" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CJ125" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C126" t="n">
         <v>2137.0</v>
@@ -33885,15 +34258,18 @@
         <v>1458.0</v>
       </c>
       <c r="CI126" t="n">
+        <v>931.0</v>
+      </c>
+      <c r="CJ126" t="n">
         <v>931.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C127" t="n">
         <v>42.0</v>
@@ -34149,14 +34525,17 @@
       </c>
       <c r="CI127" t="n">
         <v>13.0</v>
+      </c>
+      <c r="CJ127" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C128" t="n">
         <v>248.0</v>
@@ -34412,14 +34791,17 @@
       </c>
       <c r="CI128" t="n">
         <v>143.0</v>
+      </c>
+      <c r="CJ128" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C129" t="n">
         <v>846.0</v>
@@ -34674,15 +35056,18 @@
         <v>149.0</v>
       </c>
       <c r="CI129" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="CJ129" t="n">
         <v>149.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C130" t="n">
         <v>658.0</v>
@@ -34937,15 +35322,18 @@
         <v>126.0</v>
       </c>
       <c r="CI130" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="CJ130" t="n">
         <v>126.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C131" t="n">
         <v>44.0</v>
@@ -35200,15 +35588,18 @@
         <v>44.0</v>
       </c>
       <c r="CI131" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CJ131" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C132" t="n">
         <v>524.0</v>
@@ -35463,15 +35854,18 @@
         <v>175.0</v>
       </c>
       <c r="CI132" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="CJ132" t="n">
         <v>175.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C133" t="n">
         <v>120.0</v>
@@ -35727,14 +36121,17 @@
       </c>
       <c r="CI133" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CJ133" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -35989,15 +36386,18 @@
         <v>0.0</v>
       </c>
       <c r="CI134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C135" t="n">
         <v>3.0</v>
@@ -36252,15 +36652,18 @@
         <v>1.0</v>
       </c>
       <c r="CI135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ135" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C136" t="n">
         <v>241.0</v>
@@ -36516,14 +36919,17 @@
       </c>
       <c r="CI136" t="n">
         <v>55.0</v>
+      </c>
+      <c r="CJ136" t="n">
+        <v>49.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C137" t="n">
         <v>6.0</v>
@@ -36778,15 +37184,18 @@
         <v>9.0</v>
       </c>
       <c r="CI137" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="CJ137" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -37041,15 +37450,18 @@
         <v>0.0</v>
       </c>
       <c r="CI138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C139" t="n">
         <v>5.0</v>
@@ -37305,14 +37717,17 @@
       </c>
       <c r="CI139" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CJ139" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B140" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C140" t="n">
         <v>108.0</v>
@@ -37568,14 +37983,17 @@
       </c>
       <c r="CI140" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CJ140" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C141" t="n">
         <v>4.0</v>
@@ -37830,15 +38248,18 @@
         <v>0.0</v>
       </c>
       <c r="CI141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C142" t="n">
         <v>410.0</v>
@@ -38094,14 +38515,17 @@
       </c>
       <c r="CI142" t="n">
         <v>168.0</v>
+      </c>
+      <c r="CJ142" t="n">
+        <v>159.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C143" t="n">
         <v>354.0</v>
@@ -38357,14 +38781,17 @@
       </c>
       <c r="CI143" t="n">
         <v>42.0</v>
+      </c>
+      <c r="CJ143" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C144" t="n">
         <v>113.0</v>
@@ -38620,14 +39047,17 @@
       </c>
       <c r="CI144" t="n">
         <v>82.0</v>
+      </c>
+      <c r="CJ144" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C145" t="n">
         <v>76.0</v>
@@ -38883,14 +39313,17 @@
       </c>
       <c r="CI145" t="n">
         <v>18.0</v>
+      </c>
+      <c r="CJ145" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C146" t="n">
         <v>47.0</v>
@@ -39146,14 +39579,17 @@
       </c>
       <c r="CI146" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CJ146" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C147" t="n">
         <v>123.0</v>
@@ -39409,14 +39845,17 @@
       </c>
       <c r="CI147" t="n">
         <v>143.0</v>
+      </c>
+      <c r="CJ147" t="n">
+        <v>133.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C148" t="n">
         <v>98.0</v>
@@ -39672,14 +40111,17 @@
       </c>
       <c r="CI148" t="n">
         <v>38.0</v>
+      </c>
+      <c r="CJ148" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C149" t="n">
         <v>203.0</v>
@@ -39935,14 +40377,17 @@
       </c>
       <c r="CI149" t="n">
         <v>140.0</v>
+      </c>
+      <c r="CJ149" t="n">
+        <v>142.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C150" t="n">
         <v>137.0</v>
@@ -40198,14 +40643,17 @@
       </c>
       <c r="CI150" t="n">
         <v>97.0</v>
+      </c>
+      <c r="CJ150" t="n">
+        <v>89.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C151" t="n">
         <v>53.0</v>
@@ -40460,15 +40908,18 @@
         <v>9.0</v>
       </c>
       <c r="CI151" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CJ151" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C152" t="n">
         <v>137.0</v>
@@ -40724,14 +41175,17 @@
       </c>
       <c r="CI152" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CJ152" t="n">
+        <v>25.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C153" t="n">
         <v>133.0</v>
@@ -40987,14 +41441,17 @@
       </c>
       <c r="CI153" t="n">
         <v>93.0</v>
+      </c>
+      <c r="CJ153" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C154" t="n">
         <v>0.0</v>
@@ -41249,15 +41706,18 @@
         <v>0.0</v>
       </c>
       <c r="CI154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C155" t="n">
         <v>4535.0</v>
@@ -41513,14 +41973,17 @@
       </c>
       <c r="CI155" t="n">
         <v>217.0</v>
+      </c>
+      <c r="CJ155" t="n">
+        <v>199.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B156" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C156" t="n">
         <v>83.0</v>
@@ -41775,15 +42238,18 @@
         <v>6.0</v>
       </c>
       <c r="CI156" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="CJ156" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C157" t="n">
         <v>41.0</v>
@@ -42038,15 +42504,18 @@
         <v>27.0</v>
       </c>
       <c r="CI157" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="CJ157" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C158" t="n">
         <v>1147.0</v>
@@ -42301,15 +42770,18 @@
         <v>167.0</v>
       </c>
       <c r="CI158" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="CJ158" t="n">
         <v>167.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C159" t="n">
         <v>7.0</v>
@@ -42564,15 +43036,18 @@
         <v>2.0</v>
       </c>
       <c r="CI159" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CJ159" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B160" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C160" t="n">
         <v>62.0</v>
@@ -42828,14 +43303,17 @@
       </c>
       <c r="CI160" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CJ160" t="n">
+        <v>43.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C161" t="n">
         <v>14.0</v>
@@ -43090,15 +43568,18 @@
         <v>108.0</v>
       </c>
       <c r="CI161" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="CJ161" t="n">
         <v>107.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B162" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C162" t="n">
         <v>88.0</v>
@@ -43354,14 +43835,17 @@
       </c>
       <c r="CI162" t="n">
         <v>0.0</v>
+      </c>
+      <c r="CJ162" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B163" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C163" t="n">
         <v>31.0</v>
@@ -43616,15 +44100,18 @@
         <v>14.0</v>
       </c>
       <c r="CI163" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="CJ163" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B164" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C164" t="n">
         <v>83.0</v>
@@ -43880,14 +44367,17 @@
       </c>
       <c r="CI164" t="n">
         <v>58.0</v>
+      </c>
+      <c r="CJ164" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C165" t="n">
         <v>632.0</v>
@@ -44142,15 +44632,18 @@
         <v>927.0</v>
       </c>
       <c r="CI165" t="n">
+        <v>927.0</v>
+      </c>
+      <c r="CJ165" t="n">
         <v>927.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C166" t="n">
         <v>148.0</v>
@@ -44406,14 +44899,17 @@
       </c>
       <c r="CI166" t="n">
         <v>64.0</v>
+      </c>
+      <c r="CJ166" t="n">
+        <v>53.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C167" t="n">
         <v>17.0</v>
@@ -44668,15 +45164,18 @@
         <v>0.0</v>
       </c>
       <c r="CI167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ167" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C168" t="n">
         <v>1564.0</v>
@@ -44932,14 +45431,17 @@
       </c>
       <c r="CI168" t="n">
         <v>569.0</v>
+      </c>
+      <c r="CJ168" t="n">
+        <v>570.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B169" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C169" t="n">
         <v>123.0</v>
@@ -45194,15 +45696,18 @@
         <v>33.0</v>
       </c>
       <c r="CI169" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CJ169" t="n">
         <v>33.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C170" t="n">
         <v>56.0</v>
@@ -45458,14 +45963,17 @@
       </c>
       <c r="CI170" t="n">
         <v>29.0</v>
+      </c>
+      <c r="CJ170" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C171" t="n">
         <v>83.0</v>
@@ -45720,15 +46228,18 @@
         <v>11.0</v>
       </c>
       <c r="CI171" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CJ171" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B172" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C172" t="n">
         <v>89.0</v>
@@ -45983,15 +46494,18 @@
         <v>22.0</v>
       </c>
       <c r="CI172" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CJ172" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C173" t="n">
         <v>8150.0</v>
@@ -46246,15 +46760,18 @@
         <v>22549.0</v>
       </c>
       <c r="CI173" t="n">
+        <v>22549.0</v>
+      </c>
+      <c r="CJ173" t="n">
         <v>22549.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C174" t="n">
         <v>193.0</v>
@@ -46510,14 +47027,17 @@
       </c>
       <c r="CI174" t="n">
         <v>46.0</v>
+      </c>
+      <c r="CJ174" t="n">
+        <v>45.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C175" t="n">
         <v>22.0</v>
@@ -46773,14 +47293,17 @@
       </c>
       <c r="CI175" t="n">
         <v>105.0</v>
+      </c>
+      <c r="CJ175" t="n">
+        <v>103.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C176" t="n">
         <v>26.0</v>
@@ -47035,15 +47558,18 @@
         <v>0.0</v>
       </c>
       <c r="CI176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ176" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C177" t="n">
         <v>204.0</v>
@@ -47299,14 +47825,17 @@
       </c>
       <c r="CI177" t="n">
         <v>290.0</v>
+      </c>
+      <c r="CJ177" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B178" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C178" t="n">
         <v>251.0</v>
@@ -47562,14 +48091,17 @@
       </c>
       <c r="CI178" t="n">
         <v>141.0</v>
+      </c>
+      <c r="CJ178" t="n">
+        <v>137.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B179" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C179" t="n">
         <v>26.0</v>
@@ -47824,15 +48356,18 @@
         <v>0.0</v>
       </c>
       <c r="CI179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ179" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C180" t="n">
         <v>265.0</v>
@@ -48087,15 +48622,18 @@
         <v>16.0</v>
       </c>
       <c r="CI180" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="CJ180" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C181" t="n">
         <v>2099.0</v>
@@ -48351,14 +48889,17 @@
       </c>
       <c r="CI181" t="n">
         <v>1017.0</v>
+      </c>
+      <c r="CJ181" t="n">
+        <v>1067.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C182" t="n">
         <v>247.0</v>
@@ -48614,14 +49155,17 @@
       </c>
       <c r="CI182" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CJ182" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C183" t="n">
         <v>48.0</v>
@@ -48877,14 +49421,17 @@
       </c>
       <c r="CI183" t="n">
         <v>8.0</v>
+      </c>
+      <c r="CJ183" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B184" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C184" t="n">
         <v>1991.0</v>
@@ -49139,15 +49686,18 @@
         <v>368.0</v>
       </c>
       <c r="CI184" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="CJ184" t="n">
         <v>368.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B185" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C185" t="n">
         <v>121.0</v>
@@ -49402,15 +49952,18 @@
         <v>8.0</v>
       </c>
       <c r="CI185" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CJ185" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C186" t="n">
         <v>92.0</v>
@@ -49666,14 +50219,17 @@
       </c>
       <c r="CI186" t="n">
         <v>111.0</v>
+      </c>
+      <c r="CJ186" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B187" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C187" t="n">
         <v>611.0</v>
@@ -49928,15 +50484,18 @@
         <v>167.0</v>
       </c>
       <c r="CI187" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="CJ187" t="n">
         <v>167.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B188" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C188" t="n">
         <v>160.0</v>
@@ -50191,15 +50750,18 @@
         <v>8.0</v>
       </c>
       <c r="CI188" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CJ188" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B189" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C189" t="n">
         <v>160.0</v>
@@ -50455,14 +51017,17 @@
       </c>
       <c r="CI189" t="n">
         <v>88.0</v>
+      </c>
+      <c r="CJ189" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B190" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C190" t="n">
         <v>303.0</v>
@@ -50717,15 +51282,18 @@
         <v>137.0</v>
       </c>
       <c r="CI190" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CJ190" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B191" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C191" t="n">
         <v>3236.0</v>
@@ -50980,15 +51548,18 @@
         <v>252.0</v>
       </c>
       <c r="CI191" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="CJ191" t="n">
         <v>252.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B192" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C192" t="n">
         <v>118.0</v>
@@ -51244,14 +51815,17 @@
       </c>
       <c r="CI192" t="n">
         <v>30.0</v>
+      </c>
+      <c r="CJ192" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B193" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C193" t="n">
         <v>220.0</v>
@@ -51506,15 +52080,18 @@
         <v>63.0</v>
       </c>
       <c r="CI193" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="CJ193" t="n">
         <v>63.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B194" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C194" t="n">
         <v>3899.0</v>
@@ -51769,15 +52346,18 @@
         <v>274.0</v>
       </c>
       <c r="CI194" t="n">
+        <v>274.0</v>
+      </c>
+      <c r="CJ194" t="n">
         <v>274.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B195" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C195" t="n">
         <v>4.0</v>
@@ -52033,14 +52613,17 @@
       </c>
       <c r="CI195" t="n">
         <v>1.0</v>
+      </c>
+      <c r="CJ195" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
@@ -52296,14 +52879,17 @@
       </c>
       <c r="CI196" t="n">
         <v>4.0</v>
+      </c>
+      <c r="CJ196" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B197" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C197" t="n">
         <v>49.0</v>
@@ -52559,14 +53145,17 @@
       </c>
       <c r="CI197" t="n">
         <v>16.0</v>
+      </c>
+      <c r="CJ197" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B198" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C198" t="n">
         <v>255.0</v>
@@ -52822,14 +53411,17 @@
       </c>
       <c r="CI198" t="n">
         <v>23.0</v>
+      </c>
+      <c r="CJ198" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B199" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C199" t="n">
         <v>44.0</v>
@@ -53084,15 +53676,18 @@
         <v>28.0</v>
       </c>
       <c r="CI199" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="CJ199" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B200" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C200" t="n">
         <v>7.0</v>
@@ -53347,15 +53942,18 @@
         <v>1.0</v>
       </c>
       <c r="CI200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ200" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B201" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C201" t="n">
         <v>121.0</v>
@@ -53611,14 +54209,17 @@
       </c>
       <c r="CI201" t="n">
         <v>50.0</v>
+      </c>
+      <c r="CJ201" t="n">
+        <v>48.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B202" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C202" t="n">
         <v>387.0</v>
@@ -53873,15 +54474,18 @@
         <v>148.0</v>
       </c>
       <c r="CI202" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="CJ202" t="n">
         <v>148.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B203" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C203" t="n">
         <v>78.0</v>
@@ -54136,15 +54740,18 @@
         <v>8.0</v>
       </c>
       <c r="CI203" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CJ203" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B204" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C204" t="n">
         <v>292.0</v>
@@ -54400,14 +55007,17 @@
       </c>
       <c r="CI204" t="n">
         <v>368.0</v>
+      </c>
+      <c r="CJ204" t="n">
+        <v>363.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B205" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C205" t="n">
         <v>38.0</v>
@@ -54662,15 +55272,18 @@
         <v>0.0</v>
       </c>
       <c r="CI205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C206" t="n">
         <v>49.0</v>
@@ -54925,15 +55538,18 @@
         <v>11.0</v>
       </c>
       <c r="CI206" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="CJ206" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B207" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C207" t="n">
         <v>41.0</v>
@@ -55189,14 +55805,17 @@
       </c>
       <c r="CI207" t="n">
         <v>185.0</v>
+      </c>
+      <c r="CJ207" t="n">
+        <v>181.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B208" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C208" t="n">
         <v>121.0</v>
@@ -55451,15 +56070,18 @@
         <v>71.0</v>
       </c>
       <c r="CI208" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="CJ208" t="n">
         <v>71.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B209" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C209" t="n">
         <v>36.0</v>
@@ -55714,15 +56336,18 @@
         <v>0.0</v>
       </c>
       <c r="CI209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ209" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B210" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C210" t="n">
         <v>18.0</v>
@@ -55978,14 +56603,17 @@
       </c>
       <c r="CI210" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CJ210" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C211" t="n">
         <v>97.0</v>
@@ -56240,15 +56868,18 @@
         <v>0.0</v>
       </c>
       <c r="CI211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B212" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C212" t="n">
         <v>6.0</v>
@@ -56503,15 +57134,18 @@
         <v>1.0</v>
       </c>
       <c r="CI212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CJ212" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B213" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C213" t="n">
         <v>71.0</v>
@@ -56767,14 +57401,17 @@
       </c>
       <c r="CI213" t="n">
         <v>85.0</v>
+      </c>
+      <c r="CJ213" t="n">
+        <v>87.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B214" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C214" t="n">
         <v>9.0</v>
@@ -57029,15 +57666,18 @@
         <v>37.0</v>
       </c>
       <c r="CI214" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="CJ214" t="n">
         <v>44.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B215" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C215" t="n">
         <v>4596.0</v>
@@ -57292,15 +57932,18 @@
         <v>1643.0</v>
       </c>
       <c r="CI215" t="n">
+        <v>1642.0</v>
+      </c>
+      <c r="CJ215" t="n">
         <v>1642.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B216" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C216" t="n">
         <v>48.0</v>
@@ -57555,15 +58198,18 @@
         <v>10.0</v>
       </c>
       <c r="CI216" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="CJ216" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B217" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C217" t="n">
         <v>654.0</v>
@@ -57819,14 +58465,17 @@
       </c>
       <c r="CI217" t="n">
         <v>295.0</v>
+      </c>
+      <c r="CJ217" t="n">
+        <v>296.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B218" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C218" t="n">
         <v>84.0</v>
@@ -58081,15 +58730,18 @@
         <v>9.0</v>
       </c>
       <c r="CI218" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CJ218" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B219" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C219" t="n">
         <v>18.0</v>
@@ -58344,15 +58996,18 @@
         <v>3.0</v>
       </c>
       <c r="CI219" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CJ219" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B220" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C220" t="n">
         <v>5.0</v>
@@ -58607,15 +59262,18 @@
         <v>0.0</v>
       </c>
       <c r="CI220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B221" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C221" t="n">
         <v>58.0</v>
@@ -58870,15 +59528,18 @@
         <v>17.0</v>
       </c>
       <c r="CI221" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CJ221" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B222" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C222" t="n">
         <v>159.0</v>
@@ -59133,15 +59794,18 @@
         <v>15.0</v>
       </c>
       <c r="CI222" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="CJ222" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B223" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C223" t="n">
         <v>31380.0</v>
@@ -59397,14 +60061,17 @@
       </c>
       <c r="CI223" t="n">
         <v>11889.0</v>
+      </c>
+      <c r="CJ223" t="n">
+        <v>11251.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B224" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C224" t="n">
         <v>2592.0</v>
@@ -59660,14 +60327,17 @@
       </c>
       <c r="CI224" t="n">
         <v>542.0</v>
+      </c>
+      <c r="CJ224" t="n">
+        <v>530.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C225" t="n">
         <v>11.0</v>
@@ -59922,15 +60592,18 @@
         <v>0.0</v>
       </c>
       <c r="CI225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B226" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C226" t="n">
         <v>312.0</v>
@@ -60185,15 +60858,18 @@
         <v>3.0</v>
       </c>
       <c r="CI226" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CJ226" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B227" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C227" t="n">
         <v>0.0</v>
@@ -60448,15 +61124,18 @@
         <v>0.0</v>
       </c>
       <c r="CI227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B228" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C228" t="n">
         <v>179.0</v>
@@ -60712,14 +61391,17 @@
       </c>
       <c r="CI228" t="n">
         <v>376.0</v>
+      </c>
+      <c r="CJ228" t="n">
+        <v>371.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B229" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C229" t="n">
         <v>1510.0</v>
@@ -60975,14 +61657,17 @@
       </c>
       <c r="CI229" t="n">
         <v>183.0</v>
+      </c>
+      <c r="CJ229" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B230" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C230" t="n">
         <v>3091.0</v>
@@ -61238,14 +61923,17 @@
       </c>
       <c r="CI230" t="n">
         <v>1583.0</v>
+      </c>
+      <c r="CJ230" t="n">
+        <v>1560.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B231" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C231" t="n">
         <v>17.0</v>
@@ -61501,14 +62189,17 @@
       </c>
       <c r="CI231" t="n">
         <v>67.0</v>
+      </c>
+      <c r="CJ231" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C232" t="n">
         <v>124.0</v>
@@ -61763,15 +62454,18 @@
         <v>11.0</v>
       </c>
       <c r="CI232" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CJ232" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B233" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C233" t="n">
         <v>165.0</v>
@@ -62027,14 +62721,17 @@
       </c>
       <c r="CI233" t="n">
         <v>454.0</v>
+      </c>
+      <c r="CJ233" t="n">
+        <v>462.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B234" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C234" t="n">
         <v>25.0</v>
@@ -62290,14 +62987,17 @@
       </c>
       <c r="CI234" t="n">
         <v>11.0</v>
+      </c>
+      <c r="CJ234" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B235" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C235" t="n">
         <v>70.0</v>
@@ -62553,14 +63253,17 @@
       </c>
       <c r="CI235" t="n">
         <v>10.0</v>
+      </c>
+      <c r="CJ235" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B236" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C236" t="n">
         <v>323.0</v>
@@ -62815,15 +63518,18 @@
         <v>170.0</v>
       </c>
       <c r="CI236" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="CJ236" t="n">
         <v>170.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B237" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C237" t="n">
         <v>1023.0</v>
@@ -63078,15 +63784,18 @@
         <v>443.0</v>
       </c>
       <c r="CI237" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="CJ237" t="n">
         <v>442.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B238" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C238" t="n">
         <v>243.0</v>
@@ -63341,15 +64050,18 @@
         <v>136.0</v>
       </c>
       <c r="CI238" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="CJ238" t="n">
         <v>136.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B239" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C239" t="n">
         <v>230.0</v>
@@ -63605,14 +64317,17 @@
       </c>
       <c r="CI239" t="n">
         <v>91.0</v>
+      </c>
+      <c r="CJ239" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B240" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C240" t="n">
         <v>135.0</v>
@@ -63867,15 +64582,18 @@
         <v>87.0</v>
       </c>
       <c r="CI240" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="CJ240" t="n">
         <v>97.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B241" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C241" t="n">
         <v>125.0</v>
@@ -64131,14 +64849,17 @@
       </c>
       <c r="CI241" t="n">
         <v>31.0</v>
+      </c>
+      <c r="CJ241" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B242" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C242" t="n">
         <v>189.0</v>
@@ -64394,14 +65115,17 @@
       </c>
       <c r="CI242" t="n">
         <v>105.0</v>
+      </c>
+      <c r="CJ242" t="n">
+        <v>113.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B243" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C243" t="n">
         <v>3689.0</v>
@@ -64657,14 +65381,17 @@
       </c>
       <c r="CI243" t="n">
         <v>736.0</v>
+      </c>
+      <c r="CJ243" t="n">
+        <v>605.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C244" t="n">
         <v>131.0</v>
@@ -64919,15 +65646,18 @@
         <v>40.0</v>
       </c>
       <c r="CI244" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CJ244" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C245" t="n">
         <v>79.0</v>
@@ -65183,14 +65913,17 @@
       </c>
       <c r="CI245" t="n">
         <v>7.0</v>
+      </c>
+      <c r="CJ245" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B246" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C246" t="n">
         <v>2591.0</v>
@@ -65445,15 +66178,18 @@
         <v>137.0</v>
       </c>
       <c r="CI246" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="CJ246" t="n">
         <v>137.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B247" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C247" t="n">
         <v>41.0</v>
@@ -65708,15 +66444,18 @@
         <v>3.0</v>
       </c>
       <c r="CI247" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="CJ247" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B248" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C248" t="n">
         <v>146.0</v>
@@ -65972,14 +66711,17 @@
       </c>
       <c r="CI248" t="n">
         <v>87.0</v>
+      </c>
+      <c r="CJ248" t="n">
+        <v>88.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B249" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C249" t="n">
         <v>1135.0</v>
@@ -66234,15 +66976,18 @@
         <v>0.0</v>
       </c>
       <c r="CI249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CJ249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B250" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C250" t="n">
         <v>176.0</v>
@@ -66498,14 +67243,17 @@
       </c>
       <c r="CI250" t="n">
         <v>75.0</v>
+      </c>
+      <c r="CJ250" t="n">
+        <v>59.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B251" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C251" t="n">
         <v>126.0</v>
@@ -66761,14 +67509,17 @@
       </c>
       <c r="CI251" t="n">
         <v>17.0</v>
+      </c>
+      <c r="CJ251" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B252" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C252" t="n">
         <v>350.0</v>
@@ -67023,15 +67774,18 @@
         <v>78.0</v>
       </c>
       <c r="CI252" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="CJ252" t="n">
         <v>78.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B253" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C253" t="n">
         <v>357.0</v>
@@ -67286,15 +68040,18 @@
         <v>331.0</v>
       </c>
       <c r="CI253" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="CJ253" t="n">
         <v>331.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B254" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C254" t="n">
         <v>112.0</v>
@@ -67549,15 +68306,18 @@
         <v>9.0</v>
       </c>
       <c r="CI254" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CJ254" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B255" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C255" t="n">
         <v>68.0</v>
@@ -67812,15 +68572,18 @@
         <v>5.0</v>
       </c>
       <c r="CI255" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CJ255" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C256" t="n">
         <v>180.0</v>
@@ -68075,15 +68838,18 @@
         <v>51.0</v>
       </c>
       <c r="CI256" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="CJ256" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B257" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C257" t="n">
         <v>35.0</v>
@@ -68339,14 +69105,17 @@
       </c>
       <c r="CI257" t="n">
         <v>26.0</v>
+      </c>
+      <c r="CJ257" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B258" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C258"/>
       <c r="D258"/>
@@ -68433,13 +69202,14 @@
       <c r="CG258"/>
       <c r="CH258"/>
       <c r="CI258"/>
+      <c r="CJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B259" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C259"/>
       <c r="D259"/>
@@ -68526,13 +69296,14 @@
       <c r="CG259"/>
       <c r="CH259"/>
       <c r="CI259"/>
+      <c r="CJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B260" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C260"/>
       <c r="D260"/>
@@ -68619,13 +69390,14 @@
       <c r="CG260"/>
       <c r="CH260"/>
       <c r="CI260"/>
+      <c r="CJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B261" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C261"/>
       <c r="D261"/>
@@ -68712,13 +69484,14 @@
       <c r="CG261"/>
       <c r="CH261"/>
       <c r="CI261"/>
+      <c r="CJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B262" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C262"/>
       <c r="D262"/>
@@ -68805,13 +69578,14 @@
       <c r="CG262"/>
       <c r="CH262"/>
       <c r="CI262"/>
+      <c r="CJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B263" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C263"/>
       <c r="D263"/>
@@ -68898,13 +69672,14 @@
       <c r="CG263"/>
       <c r="CH263"/>
       <c r="CI263"/>
+      <c r="CJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B264" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C264"/>
       <c r="D264"/>
@@ -68991,13 +69766,14 @@
       <c r="CG264"/>
       <c r="CH264"/>
       <c r="CI264"/>
+      <c r="CJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B265" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C265"/>
       <c r="D265"/>
@@ -69084,13 +69860,14 @@
       <c r="CG265"/>
       <c r="CH265"/>
       <c r="CI265"/>
+      <c r="CJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B266" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C266"/>
       <c r="D266"/>
@@ -69177,13 +69954,14 @@
       <c r="CG266"/>
       <c r="CH266"/>
       <c r="CI266"/>
+      <c r="CJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B267" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C267"/>
       <c r="D267"/>
@@ -69270,13 +70048,14 @@
       <c r="CG267"/>
       <c r="CH267"/>
       <c r="CI267"/>
+      <c r="CJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B268" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C268"/>
       <c r="D268"/>
@@ -69363,13 +70142,14 @@
       <c r="CG268"/>
       <c r="CH268"/>
       <c r="CI268"/>
+      <c r="CJ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B269" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C269"/>
       <c r="D269"/>
@@ -69456,13 +70236,14 @@
       <c r="CG269"/>
       <c r="CH269"/>
       <c r="CI269"/>
+      <c r="CJ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B270" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C270"/>
       <c r="D270"/>
@@ -69549,13 +70330,14 @@
       <c r="CG270"/>
       <c r="CH270"/>
       <c r="CI270"/>
+      <c r="CJ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B271" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C271"/>
       <c r="D271"/>
@@ -69642,13 +70424,14 @@
       <c r="CG271"/>
       <c r="CH271"/>
       <c r="CI271"/>
+      <c r="CJ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B272" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C272"/>
       <c r="D272"/>
@@ -69735,13 +70518,14 @@
       <c r="CG272"/>
       <c r="CH272"/>
       <c r="CI272"/>
+      <c r="CJ272"/>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B273" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C273"/>
       <c r="D273"/>
@@ -69828,13 +70612,14 @@
       <c r="CG273"/>
       <c r="CH273"/>
       <c r="CI273"/>
+      <c r="CJ273"/>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B274" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C274"/>
       <c r="D274"/>
@@ -69921,13 +70706,14 @@
       <c r="CG274"/>
       <c r="CH274"/>
       <c r="CI274"/>
+      <c r="CJ274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B275" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C275"/>
       <c r="D275"/>
@@ -70014,13 +70800,14 @@
       <c r="CG275"/>
       <c r="CH275"/>
       <c r="CI275"/>
+      <c r="CJ275"/>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B276" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C276"/>
       <c r="D276"/>
@@ -70107,13 +70894,14 @@
       <c r="CG276"/>
       <c r="CH276"/>
       <c r="CI276"/>
+      <c r="CJ276"/>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B277" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C277"/>
       <c r="D277"/>
@@ -70200,13 +70988,14 @@
       <c r="CG277"/>
       <c r="CH277"/>
       <c r="CI277"/>
+      <c r="CJ277"/>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B278" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C278"/>
       <c r="D278"/>
@@ -70293,13 +71082,14 @@
       <c r="CG278"/>
       <c r="CH278"/>
       <c r="CI278"/>
+      <c r="CJ278"/>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B279" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C279"/>
       <c r="D279"/>
@@ -70386,6 +71176,7 @@
       <c r="CG279"/>
       <c r="CH279"/>
       <c r="CI279"/>
+      <c r="CJ279"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
